--- a/sampleData_AgeUpdate.xlsx
+++ b/sampleData_AgeUpdate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Project_Marczak\2023_01_Chronostratigraphy_Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMARCZAK\Documents\Scripts\Chronostratigraphy_Year_Range_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F3D5F4-7E33-45F2-8B66-5B970571BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41270DE7-1A58-40E2-AA27-0639BF557603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sampleData_AgeUpdate" sheetId="1" r:id="rId1"/>
@@ -7836,12 +7836,6 @@
     <t>HOY_2333</t>
   </si>
   <si>
-    <t>age_min_t_range?</t>
-  </si>
-  <si>
-    <t>age_max_t_range?</t>
-  </si>
-  <si>
     <t>Meghalayan</t>
   </si>
   <si>
@@ -8266,6 +8260,12 @@
   </si>
   <si>
     <t>so if it just says quaternary then return 0.0042 - 2.58</t>
+  </si>
+  <si>
+    <t>age_min_t_range</t>
+  </si>
+  <si>
+    <t>age_max_t_range</t>
   </si>
 </sst>
 </file>
@@ -9100,7 +9100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9110,8 +9110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ1334"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9214,13 +9214,13 @@
         <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>2601</v>
+        <v>2743</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>2600</v>
+        <v>2742</v>
       </c>
       <c r="AC1" t="s">
         <v>26</v>
@@ -9392,7 +9392,7 @@
         <v>69</v>
       </c>
       <c r="Y3">
-        <v>1600</v>
+        <v>160000</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -103254,8 +103254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB45658-E81F-4147-9B5E-D64389681B01}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -103271,39 +103271,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="B1" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="C1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2601</v>
+        <v>2743</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2600</v>
+        <v>2742</v>
       </c>
       <c r="H1" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B2" t="s">
         <v>2280</v>
       </c>
       <c r="C2" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="D2">
         <v>4.1999999999999997E-3</v>
@@ -103318,18 +103318,18 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B3" t="s">
         <v>2280</v>
       </c>
       <c r="C3" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="D3">
         <v>8.2000000000000007E-3</v>
@@ -103345,18 +103345,18 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B4" t="s">
         <v>2280</v>
       </c>
       <c r="C4" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="D4">
         <v>1.17E-2</v>
@@ -103372,18 +103372,18 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B5" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="C5" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="D5">
         <v>0.129</v>
@@ -103401,13 +103401,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C6" t="s">
         <v>2607</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2609</v>
       </c>
       <c r="D6">
         <v>0.77400000000000002</v>
@@ -103425,13 +103425,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B7" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="C7" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="D7">
         <v>1.8</v>
@@ -103449,13 +103449,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="C8" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="D8">
         <v>2.58</v>
@@ -103479,7 +103479,7 @@
         <v>1311</v>
       </c>
       <c r="C9" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="D9">
         <v>3.6</v>
@@ -103503,7 +103503,7 @@
         <v>1311</v>
       </c>
       <c r="C10" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="D10">
         <v>5.3330000000000002</v>
@@ -103527,7 +103527,7 @@
         <v>2058</v>
       </c>
       <c r="C11" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="D11">
         <v>7.2460000000000004</v>
@@ -103551,7 +103551,7 @@
         <v>2058</v>
       </c>
       <c r="C12" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="D12">
         <v>11.63</v>
@@ -103575,7 +103575,7 @@
         <v>2058</v>
       </c>
       <c r="C13" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="D13">
         <v>13.82</v>
@@ -103599,7 +103599,7 @@
         <v>2058</v>
       </c>
       <c r="C14" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="D14">
         <v>15.97</v>
@@ -103623,7 +103623,7 @@
         <v>2058</v>
       </c>
       <c r="C15" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="D15">
         <v>20.440000000000001</v>
@@ -103647,7 +103647,7 @@
         <v>2058</v>
       </c>
       <c r="C16" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="D16">
         <v>23.03</v>
@@ -103668,10 +103668,10 @@
         <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="C17" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="D17">
         <v>27.82</v>
@@ -103692,10 +103692,10 @@
         <v>161</v>
       </c>
       <c r="B18" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C18" t="s">
         <v>2620</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2622</v>
       </c>
       <c r="D18">
         <v>33.9</v>
@@ -103719,7 +103719,7 @@
         <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="D19">
         <v>37.71</v>
@@ -103743,7 +103743,7 @@
         <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="D20">
         <v>41.2</v>
@@ -103767,7 +103767,7 @@
         <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="D21">
         <v>47.8</v>
@@ -103815,7 +103815,7 @@
         <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="D23">
         <v>59.2</v>
@@ -103839,7 +103839,7 @@
         <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="D24">
         <v>61.6</v>
@@ -103863,7 +103863,7 @@
         <v>224</v>
       </c>
       <c r="C25" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="D25">
         <v>66</v>
@@ -103884,10 +103884,10 @@
         <v>1618</v>
       </c>
       <c r="B26" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C26" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="D26">
         <v>72.099999999999994</v>
@@ -103908,7 +103908,7 @@
         <v>1618</v>
       </c>
       <c r="B27" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C27" t="s">
         <v>2392</v>
@@ -103933,10 +103933,10 @@
         <v>1618</v>
       </c>
       <c r="B28" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C28" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="D28">
         <v>86.3</v>
@@ -103958,10 +103958,10 @@
         <v>1618</v>
       </c>
       <c r="B29" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C29" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="D29">
         <v>89.8</v>
@@ -103983,10 +103983,10 @@
         <v>1618</v>
       </c>
       <c r="B30" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C30" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="D30">
         <v>93.9</v>
@@ -104008,10 +104008,10 @@
         <v>1618</v>
       </c>
       <c r="B31" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C31" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="D31">
         <v>100.5</v>
@@ -104033,10 +104033,10 @@
         <v>1618</v>
       </c>
       <c r="B32" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C32" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="D32">
         <v>113</v>
@@ -104058,10 +104058,10 @@
         <v>1618</v>
       </c>
       <c r="B33" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C33" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="D33">
         <v>121.4</v>
@@ -104083,10 +104083,10 @@
         <v>1618</v>
       </c>
       <c r="B34" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C34" t="s">
         <v>2637</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2639</v>
       </c>
       <c r="D34">
         <v>129.4</v>
@@ -104108,10 +104108,10 @@
         <v>1618</v>
       </c>
       <c r="B35" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C35" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="D35">
         <v>132.6</v>
@@ -104133,10 +104133,10 @@
         <v>1618</v>
       </c>
       <c r="B36" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C36" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="D36">
         <v>145</v>
@@ -104155,13 +104155,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B37" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C37" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="D37">
         <v>152.1</v>
@@ -104180,13 +104180,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C38" t="s">
         <v>2642</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2608</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2644</v>
       </c>
       <c r="D38">
         <v>157.30000000000001</v>
@@ -104205,10 +104205,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B39" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C39" t="s">
         <v>1047</v>
@@ -104230,10 +104230,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B40" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C40" t="s">
         <v>1256</v>
@@ -104255,13 +104255,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B41" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C41" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="D41">
         <v>168.3</v>
@@ -104280,10 +104280,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B42" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C42" t="s">
         <v>557</v>
@@ -104305,13 +104305,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B43" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C43" t="s">
         <v>2645</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2647</v>
       </c>
       <c r="D43">
         <v>174.1</v>
@@ -104330,10 +104330,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B44" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C44" t="s">
         <v>753</v>
@@ -104355,13 +104355,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B45" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C45" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="D45">
         <v>190.8</v>
@@ -104380,13 +104380,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B46" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C46" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="D46">
         <v>199.3</v>
@@ -104405,10 +104405,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B47" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C47" t="s">
         <v>739</v>
@@ -104433,7 +104433,7 @@
         <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C48" t="s">
         <v>917</v>
@@ -104458,7 +104458,7 @@
         <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C49" t="s">
         <v>310</v>
@@ -104483,10 +104483,10 @@
         <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C50" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="D50">
         <v>237</v>
@@ -104508,10 +104508,10 @@
         <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C51" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="D51">
         <v>242</v>
@@ -104533,10 +104533,10 @@
         <v>170</v>
       </c>
       <c r="B52" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C52" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="D52">
         <v>247.2</v>
@@ -104558,10 +104558,10 @@
         <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C53" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="D53">
         <v>251.2</v>
@@ -104583,10 +104583,10 @@
         <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C54" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="D54">
         <v>251.90199999999999</v>
@@ -104608,10 +104608,10 @@
         <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="C55" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="D55">
         <v>254.14</v>
@@ -104633,10 +104633,10 @@
         <v>120</v>
       </c>
       <c r="B56" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C56" t="s">
         <v>2655</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2657</v>
       </c>
       <c r="D56">
         <v>259.51</v>
@@ -104658,10 +104658,10 @@
         <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="C57" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="D57">
         <v>264.27999999999997</v>
@@ -104683,10 +104683,10 @@
         <v>120</v>
       </c>
       <c r="B58" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C58" t="s">
         <v>2659</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2661</v>
       </c>
       <c r="D58">
         <v>266.89999999999998</v>
@@ -104708,10 +104708,10 @@
         <v>120</v>
       </c>
       <c r="B59" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C59" t="s">
         <v>2660</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2662</v>
       </c>
       <c r="D59">
         <v>273.01</v>
@@ -104733,10 +104733,10 @@
         <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="C60" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="D60">
         <v>283.5</v>
@@ -104758,10 +104758,10 @@
         <v>120</v>
       </c>
       <c r="B61" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C61" t="s">
         <v>2663</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2665</v>
       </c>
       <c r="D61">
         <v>290.10000000000002</v>
@@ -104783,10 +104783,10 @@
         <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="C62" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="D62">
         <v>293.52</v>
@@ -104808,10 +104808,10 @@
         <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="C63" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="D63">
         <v>298.89999999999998</v>
@@ -104833,10 +104833,10 @@
         <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="C64" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="D64">
         <v>303.7</v>
@@ -104858,10 +104858,10 @@
         <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="C65" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="D65">
         <v>307</v>
@@ -104883,10 +104883,10 @@
         <v>119</v>
       </c>
       <c r="B66" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="C66" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="D66">
         <v>315.2</v>
@@ -104908,10 +104908,10 @@
         <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="C67" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="D67">
         <v>323.2</v>
@@ -104933,10 +104933,10 @@
         <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="C68" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="D68">
         <v>330.9</v>
@@ -104945,7 +104945,7 @@
         <v>0.2</v>
       </c>
       <c r="F68">
-        <f>$D67</f>
+        <f t="shared" ref="F68:F83" si="2">$D67</f>
         <v>323.2</v>
       </c>
       <c r="G68">
@@ -104958,10 +104958,10 @@
         <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="C69" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="D69">
         <v>346.7</v>
@@ -104970,7 +104970,7 @@
         <v>0.4</v>
       </c>
       <c r="F69">
-        <f>$D68</f>
+        <f t="shared" si="2"/>
         <v>330.9</v>
       </c>
       <c r="G69">
@@ -104983,10 +104983,10 @@
         <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="C70" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="D70">
         <v>358.9</v>
@@ -104995,7 +104995,7 @@
         <v>0.4</v>
       </c>
       <c r="F70">
-        <f>$D69</f>
+        <f t="shared" si="2"/>
         <v>346.7</v>
       </c>
       <c r="G70">
@@ -105008,10 +105008,10 @@
         <v>594</v>
       </c>
       <c r="B71" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C71" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="D71">
         <v>372.2</v>
@@ -105020,7 +105020,7 @@
         <v>1.6</v>
       </c>
       <c r="F71">
-        <f>$D70</f>
+        <f t="shared" si="2"/>
         <v>358.9</v>
       </c>
       <c r="G71">
@@ -105033,10 +105033,10 @@
         <v>594</v>
       </c>
       <c r="B72" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C72" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="D72">
         <v>382.7</v>
@@ -105045,7 +105045,7 @@
         <v>1.6</v>
       </c>
       <c r="F72">
-        <f>$D71</f>
+        <f t="shared" si="2"/>
         <v>372.2</v>
       </c>
       <c r="G72">
@@ -105058,10 +105058,10 @@
         <v>594</v>
       </c>
       <c r="B73" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C73" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="D73">
         <v>387.7</v>
@@ -105070,7 +105070,7 @@
         <v>0.8</v>
       </c>
       <c r="F73">
-        <f>$D72</f>
+        <f t="shared" si="2"/>
         <v>382.7</v>
       </c>
       <c r="G73">
@@ -105083,10 +105083,10 @@
         <v>594</v>
       </c>
       <c r="B74" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C74" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="D74">
         <v>393.3</v>
@@ -105095,7 +105095,7 @@
         <v>1.2</v>
       </c>
       <c r="F74">
-        <f>$D73</f>
+        <f t="shared" si="2"/>
         <v>387.7</v>
       </c>
       <c r="G74">
@@ -105108,10 +105108,10 @@
         <v>594</v>
       </c>
       <c r="B75" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C75" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="D75">
         <v>407.6</v>
@@ -105120,7 +105120,7 @@
         <v>2.6</v>
       </c>
       <c r="F75">
-        <f>$D74</f>
+        <f t="shared" si="2"/>
         <v>393.3</v>
       </c>
       <c r="G75">
@@ -105133,10 +105133,10 @@
         <v>594</v>
       </c>
       <c r="B76" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C76" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="D76">
         <v>410.8</v>
@@ -105145,7 +105145,7 @@
         <v>2.8</v>
       </c>
       <c r="F76">
-        <f>$D75</f>
+        <f t="shared" si="2"/>
         <v>407.6</v>
       </c>
       <c r="G76">
@@ -105158,10 +105158,10 @@
         <v>594</v>
       </c>
       <c r="B77" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C77" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="D77">
         <v>419.2</v>
@@ -105170,7 +105170,7 @@
         <v>3.2</v>
       </c>
       <c r="F77">
-        <f>$D76</f>
+        <f t="shared" si="2"/>
         <v>410.8</v>
       </c>
       <c r="G77">
@@ -105180,13 +105180,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C78" t="s">
         <v>2688</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2689</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2690</v>
       </c>
       <c r="D78">
         <v>423</v>
@@ -105195,7 +105195,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F78">
-        <f>$D77</f>
+        <f t="shared" si="2"/>
         <v>419.2</v>
       </c>
       <c r="G78">
@@ -105205,13 +105205,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="B79" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="C79" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="D79">
         <v>425.6</v>
@@ -105220,7 +105220,7 @@
         <v>0.9</v>
       </c>
       <c r="F79">
-        <f>$D78</f>
+        <f t="shared" si="2"/>
         <v>423</v>
       </c>
       <c r="G79">
@@ -105230,13 +105230,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="B80" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C80" t="s">
         <v>2691</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2693</v>
       </c>
       <c r="D80">
         <v>427.4</v>
@@ -105245,7 +105245,7 @@
         <v>0.5</v>
       </c>
       <c r="F80">
-        <f>$D79</f>
+        <f t="shared" si="2"/>
         <v>425.6</v>
       </c>
       <c r="G80">
@@ -105255,13 +105255,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="B81" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="C81" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="D81">
         <v>430.5</v>
@@ -105270,7 +105270,7 @@
         <v>0.7</v>
       </c>
       <c r="F81">
-        <f>$D80</f>
+        <f t="shared" si="2"/>
         <v>427.4</v>
       </c>
       <c r="G81">
@@ -105280,13 +105280,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="B82" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C82" t="s">
         <v>2694</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2696</v>
       </c>
       <c r="D82">
         <v>433.4</v>
@@ -105295,7 +105295,7 @@
         <v>0.8</v>
       </c>
       <c r="F82">
-        <f>$D81</f>
+        <f t="shared" si="2"/>
         <v>430.5</v>
       </c>
       <c r="G82">
@@ -105305,13 +105305,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="B83" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="C83" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="D83">
         <v>438.5</v>
@@ -105320,7 +105320,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F83">
-        <f>$D82</f>
+        <f t="shared" si="2"/>
         <v>433.4</v>
       </c>
       <c r="G83">
@@ -105330,13 +105330,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="B84" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C84" t="s">
         <v>2697</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2699</v>
       </c>
       <c r="D84">
         <v>440.8</v>
@@ -105345,23 +105345,23 @@
         <v>1.2</v>
       </c>
       <c r="F84">
-        <f t="shared" ref="F84:F117" si="2">$D83</f>
+        <f t="shared" ref="F84:F117" si="3">$D83</f>
         <v>438.5</v>
       </c>
       <c r="G84">
-        <f t="shared" ref="G84:G117" si="3">$E83</f>
+        <f t="shared" ref="G84:G117" si="4">$E83</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="B85" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="C85" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="D85">
         <v>443.8</v>
@@ -105370,23 +105370,23 @@
         <v>1.5</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>440.8</v>
       </c>
       <c r="G85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B86" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C86" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="D86">
         <v>445.2</v>
@@ -105395,23 +105395,23 @@
         <v>1.4</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>443.8</v>
       </c>
       <c r="G86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C87" t="s">
         <v>2701</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2608</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2703</v>
       </c>
       <c r="D87">
         <v>453</v>
@@ -105420,23 +105420,23 @@
         <v>0.7</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>445.2</v>
       </c>
       <c r="G87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B88" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="C88" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="D88">
         <v>458.4</v>
@@ -105445,23 +105445,23 @@
         <v>0.9</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>453</v>
       </c>
       <c r="G88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B89" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C89" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="D89">
         <v>467.3</v>
@@ -105470,23 +105470,23 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>458.4</v>
       </c>
       <c r="G89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B90" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C90" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="D90">
         <v>470</v>
@@ -105495,23 +105495,23 @@
         <v>1.4</v>
       </c>
       <c r="F90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>467.3</v>
       </c>
       <c r="G90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B91" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C91" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="D91">
         <v>477.7</v>
@@ -105520,23 +105520,23 @@
         <v>1.4</v>
       </c>
       <c r="F91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>470</v>
       </c>
       <c r="G91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B92" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="C92" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="D92">
         <v>485.4</v>
@@ -105545,23 +105545,23 @@
         <v>1.9</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>477.7</v>
       </c>
       <c r="G92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C93" t="s">
         <v>2709</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2710</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2711</v>
       </c>
       <c r="D93">
         <v>489.5</v>
@@ -105570,23 +105570,23 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>485.4</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B94" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C94" t="s">
         <v>2710</v>
-      </c>
-      <c r="C94" t="s">
-        <v>2712</v>
       </c>
       <c r="D94">
         <v>494</v>
@@ -105595,23 +105595,23 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>489.5</v>
       </c>
       <c r="G94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B95" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="C95" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="D95">
         <v>497</v>
@@ -105620,23 +105620,23 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>494</v>
       </c>
       <c r="G95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B96" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="C96" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="D96">
         <v>500.5</v>
@@ -105645,23 +105645,23 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>497</v>
       </c>
       <c r="G96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B97" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C97" t="s">
         <v>2714</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2716</v>
       </c>
       <c r="D97">
         <v>504.5</v>
@@ -105670,23 +105670,23 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500.5</v>
       </c>
       <c r="G97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B98" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="C98" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="D98">
         <v>509</v>
@@ -105695,23 +105695,23 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>504.5</v>
       </c>
       <c r="G98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B99" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="C99" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="D99">
         <v>514</v>
@@ -105720,23 +105720,23 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>509</v>
       </c>
       <c r="G99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B100" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C100" t="s">
         <v>2718</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2720</v>
       </c>
       <c r="D100">
         <v>521</v>
@@ -105745,23 +105745,23 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>514</v>
       </c>
       <c r="G100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B101" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="C101" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="D101">
         <v>529</v>
@@ -105770,23 +105770,23 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>521</v>
       </c>
       <c r="G101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B102" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C102" t="s">
         <v>2721</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2723</v>
       </c>
       <c r="D102">
         <v>538.79999999999995</v>
@@ -105795,11 +105795,11 @@
         <v>0.2</v>
       </c>
       <c r="F102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>529</v>
       </c>
       <c r="G102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -105811,7 +105811,7 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="D103">
         <v>635</v>
@@ -105820,11 +105820,11 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>538.79999999999995</v>
       </c>
       <c r="G103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
     </row>
@@ -105836,7 +105836,7 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="D104">
         <v>720</v>
@@ -105845,11 +105845,11 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>635</v>
       </c>
       <c r="G104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -105861,7 +105861,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="D105">
         <v>1000</v>
@@ -105870,11 +105870,11 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="G105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -105886,7 +105886,7 @@
         <v>68</v>
       </c>
       <c r="C106" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="D106">
         <v>1200</v>
@@ -105895,11 +105895,11 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="G106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -105911,7 +105911,7 @@
         <v>68</v>
       </c>
       <c r="C107" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="D107">
         <v>1400</v>
@@ -105920,11 +105920,11 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="G107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -105936,7 +105936,7 @@
         <v>68</v>
       </c>
       <c r="C108" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="D108">
         <v>1600</v>
@@ -105945,11 +105945,11 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="G108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -105961,7 +105961,7 @@
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="D109">
         <v>1800</v>
@@ -105970,11 +105970,11 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="G109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -105986,7 +105986,7 @@
         <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="D110">
         <v>2050</v>
@@ -105995,11 +105995,11 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
       <c r="G110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -106011,7 +106011,7 @@
         <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="D111">
         <v>2300</v>
@@ -106020,11 +106020,11 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2050</v>
       </c>
       <c r="G111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -106036,7 +106036,7 @@
         <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="D112">
         <v>2500</v>
@@ -106045,20 +106045,20 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2300</v>
       </c>
       <c r="G112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B113" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="D113">
         <v>2800</v>
@@ -106067,20 +106067,20 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
       <c r="G113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B114" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="D114">
         <v>3200</v>
@@ -106089,20 +106089,20 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2800</v>
       </c>
       <c r="G114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B115" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="D115">
         <v>3600</v>
@@ -106111,20 +106111,20 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3200</v>
       </c>
       <c r="G115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B116" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="D116">
         <v>4000</v>
@@ -106133,23 +106133,23 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3600</v>
       </c>
       <c r="G116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="B117" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="C117" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="D117">
         <v>4600</v>
@@ -106158,11 +106158,11 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
       <c r="G117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
